--- a/mathTransformed/HMPSTT_(2021-01-08)_45_4.xlsx
+++ b/mathTransformed/HMPSTT_(2021-01-08)_45_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>S K R HS GL HalliSondur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Bellar</t>
         </is>
       </c>
@@ -508,7 +518,8 @@
           <t>ARUNA P S</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>GHS Maridasanahalli pavagada,Madhugir</t>
         </is>
@@ -537,6 +548,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>S M H S GanadahunaseSira</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -562,7 +578,8 @@
           <t>C V LAKSHMI NARAYANA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>S K High School Kodagadala Madhugir</t>
         </is>
@@ -589,7 +606,8 @@
           <t>CHANDRAIAH D A</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Sri Basaveshwara RHS Kondli Cross Gubbi,Tumku</t>
         </is>
@@ -616,7 +634,8 @@
           <t>CHANDRASEKHARAIAH G H</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>M G M High School Gundarlahalli Pavagada Madhugir</t>
         </is>
@@ -643,7 +662,8 @@
           <t>CHANDRASHEKHARA G E</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>S G R H.S.Attimage Hosadurga,Chitradurg</t>
         </is>
@@ -670,7 +690,8 @@
           <t>CHANNABASAPPA NAGAVAND</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Shri Barageramma HS Chitradurga</t>
         </is>
@@ -699,6 +720,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>S G R H S Kote Hosadurga</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -726,6 +752,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Sri N Ghattappa nayaka Rural HS ChickkobanahalliMolakalmuru</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -753,6 +784,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya hagaribommanahalli</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Ballar</t>
         </is>
       </c>
@@ -778,7 +814,8 @@
           <t>GOVINDAIAH</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>R P H S  Pavagada ,Madhugir</t>
         </is>
@@ -807,6 +844,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>M G V P H S CB Kere Hosadurga</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -832,7 +874,8 @@
           <t>K G RAJASHEKHARA GOUDA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>P.V.S.B.C HS Hospet ,Ballar</t>
         </is>
@@ -855,6 +898,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Shanthala High School Chikkanahally Sira</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Bellari</t>
         </is>
       </c>
@@ -880,7 +928,8 @@
           <t>KAVITHA S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>GHS Byatha Tumku</t>
         </is>
@@ -909,6 +958,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>GHS MankiHonnavar</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Uttarkannada</t>
         </is>
       </c>
@@ -936,6 +990,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>S B R H S BG KereMolakalmuru</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -961,7 +1020,8 @@
           <t>MALLAPPA K</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Sri Swamy Vivekananada HS Challakere Chitradurg</t>
         </is>
@@ -988,7 +1048,8 @@
           <t>MALLAPPA N B</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>TPCK GHS Holalakere,Chitradurg</t>
         </is>
@@ -1015,7 +1076,8 @@
           <t>MALLIKARJUNA C M</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>SGRHS Karehalli Hosadurga Chitradurg</t>
         </is>
@@ -1044,6 +1106,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Govt. Adarshavidyalaya Siruguppa</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Bellar</t>
         </is>
       </c>
@@ -1069,7 +1136,8 @@
           <t>MANJUNATHA B H</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>S K.M.M High School Kurramkote Koratagere Madhugir</t>
         </is>
@@ -1096,7 +1164,8 @@
           <t>N MANJULA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Govt Junior College  HS I.D.Halli,Madhugir</t>
         </is>
@@ -1125,6 +1194,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Sree Basaveswar Rural HS Mathodu Hosadurga</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1152,6 +1226,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>GHS Kurubarahalli</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Chitradurga</t>
         </is>
       </c>
@@ -1177,7 +1256,8 @@
           <t>P G ASHOKA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Guru Deva  High School Kottur Kudligi,Ballar</t>
         </is>
@@ -1204,7 +1284,8 @@
           <t>R P NATARAJU</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>S G R J C Gulur,Tumku</t>
         </is>
@@ -1233,6 +1314,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Jeevanidhi High School Bukkapattana Sira</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Madhugir</t>
         </is>
       </c>
@@ -1260,6 +1346,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>GHS RavihalSiruguppa</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Bellari</t>
         </is>
       </c>
@@ -1285,7 +1376,8 @@
           <t>RAMACHANDRAPPA K</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>S R High School Kavanadala Madhugir</t>
         </is>
@@ -1312,7 +1404,8 @@
           <t>RANGAPPA B G</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>S.M.H.S.Vengalapura Hosadurga Chitradurg</t>
         </is>
@@ -1341,6 +1434,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>S K.D.D.V HS</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Hosalli Kudligi,Ballari-58321</t>
         </is>
       </c>
@@ -1368,6 +1466,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>S S R C H S Vijapura</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Chitradurg</t>
         </is>
       </c>
@@ -1393,7 +1496,8 @@
           <t>S SHEKHARAPPA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>S R P U  Mallappanahalli,Hosadurga,Chitradurg</t>
         </is>
@@ -1420,7 +1524,8 @@
           <t>S VENKATESHA PATIL</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Vanivilasa Composite HS Hosadurga Chitradurg</t>
         </is>
@@ -1449,6 +1554,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Govt. Adarsha Vidyalaya Hagaribommanahalli</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Bellari</t>
         </is>
       </c>
@@ -1476,6 +1586,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>GHS MuddatanurSiruguppa</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Bellari</t>
         </is>
       </c>
@@ -1501,7 +1616,8 @@
           <t>SHIVARAMEGOWDA B S</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>SPV HS Mavinahalli Gubbi,Tumku</t>
         </is>
@@ -1528,7 +1644,8 @@
           <t>SIDDALINGAPPA D T</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Kanchivaradaraja H.S.Kanchipura,Hosadurga Chitradurg</t>
         </is>
@@ -1555,7 +1672,8 @@
           <t>SUDHAKARA R G</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Sri Valmiiki HS Challakere Chitradurga</t>
         </is>
@@ -1582,7 +1700,8 @@
           <t>SUMA K L</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>S A R H S Rantavalalu Madhugir</t>
         </is>
@@ -1609,7 +1728,8 @@
           <t>THIMMARAYAPPA T</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Sri Ambabavani High School Seenappanahalli Kunigal,Tumku</t>
         </is>
@@ -1636,7 +1756,8 @@
           <t>UMESHA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>Bharatheeya HS Madakaripura Chitradurg</t>
         </is>
@@ -1663,7 +1784,8 @@
           <t>VISWANATHA T N</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>S P V H S Mavinahalli Gubbi,Tumku</t>
         </is>

--- a/mathTransformed/HMPSTT_(2021-01-08)_45_4.xlsx
+++ b/mathTransformed/HMPSTT_(2021-01-08)_45_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,6 @@
           <t>ARUNA P S</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>GHS Maridasanahalli pavagada,Madhugir</t>
@@ -553,7 +552,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -578,7 +577,6 @@
           <t>C V LAKSHMI NARAYANA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>S K High School Kodagadala Madhugir</t>
@@ -606,7 +604,6 @@
           <t>CHANDRAIAH D A</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>Sri Basaveshwara RHS Kondli Cross Gubbi,Tumku</t>
@@ -634,7 +631,6 @@
           <t>CHANDRASEKHARAIAH G H</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>M G M High School Gundarlahalli Pavagada Madhugir</t>
@@ -662,7 +658,6 @@
           <t>CHANDRASHEKHARA G E</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>S G R H.S.Attimage Hosadurga,Chitradurg</t>
@@ -690,7 +685,6 @@
           <t>CHANNABASAPPA NAGAVAND</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>Shri Barageramma HS Chitradurga</t>
@@ -814,7 +808,6 @@
           <t>GOVINDAIAH</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>R P H S  Pavagada ,Madhugir</t>
@@ -874,7 +867,6 @@
           <t>K G RAJASHEKHARA GOUDA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>P.V.S.B.C HS Hospet ,Ballar</t>
@@ -903,7 +895,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bellari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -928,7 +920,6 @@
           <t>KAVITHA S</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>GHS Byatha Tumku</t>
@@ -1020,7 +1011,6 @@
           <t>MALLAPPA K</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>Sri Swamy Vivekananada HS Challakere Chitradurg</t>
@@ -1048,7 +1038,6 @@
           <t>MALLAPPA N B</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>TPCK GHS Holalakere,Chitradurg</t>
@@ -1076,7 +1065,6 @@
           <t>MALLIKARJUNA C M</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>SGRHS Karehalli Hosadurga Chitradurg</t>
@@ -1136,7 +1124,6 @@
           <t>MANJUNATHA B H</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>S K.M.M High School Kurramkote Koratagere Madhugir</t>
@@ -1164,7 +1151,6 @@
           <t>N MANJULA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>Govt Junior College  HS I.D.Halli,Madhugir</t>
@@ -1256,7 +1242,6 @@
           <t>P G ASHOKA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>Guru Deva  High School Kottur Kudligi,Ballar</t>
@@ -1284,7 +1269,6 @@
           <t>R P NATARAJU</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>S G R J C Gulur,Tumku</t>
@@ -1351,7 +1335,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bellari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1360,6 @@
           <t>RAMACHANDRAPPA K</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>S R High School Kavanadala Madhugir</t>
@@ -1404,7 +1387,6 @@
           <t>RANGAPPA B G</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>S.M.H.S.Vengalapura Hosadurga Chitradurg</t>
@@ -1496,7 +1478,6 @@
           <t>S SHEKHARAPPA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>S R P U  Mallappanahalli,Hosadurga,Chitradurg</t>
@@ -1524,7 +1505,6 @@
           <t>S VENKATESHA PATIL</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>Vanivilasa Composite HS Hosadurga Chitradurg</t>
@@ -1559,7 +1539,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Bellari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1571,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bellari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1596,6 @@
           <t>SHIVARAMEGOWDA B S</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>SPV HS Mavinahalli Gubbi,Tumku</t>
@@ -1644,7 +1623,6 @@
           <t>SIDDALINGAPPA D T</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>Kanchivaradaraja H.S.Kanchipura,Hosadurga Chitradurg</t>
@@ -1672,7 +1650,6 @@
           <t>SUDHAKARA R G</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>Sri Valmiiki HS Challakere Chitradurga</t>
@@ -1700,7 +1677,6 @@
           <t>SUMA K L</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>S A R H S Rantavalalu Madhugir</t>
@@ -1728,7 +1704,6 @@
           <t>THIMMARAYAPPA T</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>Sri Ambabavani High School Seenappanahalli Kunigal,Tumku</t>
@@ -1756,7 +1731,6 @@
           <t>UMESHA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>Bharatheeya HS Madakaripura Chitradurg</t>
@@ -1784,7 +1758,6 @@
           <t>VISWANATHA T N</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>S P V H S Mavinahalli Gubbi,Tumku</t>

--- a/mathTransformed/HMPSTT_(2021-01-08)_45_4.xlsx
+++ b/mathTransformed/HMPSTT_(2021-01-08)_45_4.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bellar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GHS Maridasanahalli pavagada,Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>S K High School Kodagadala Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sri Basaveshwara RHS Kondli Cross Gubbi,Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>M G M High School Gundarlahalli Pavagada Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>S G R H.S.Attimage Hosadurga,Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Shri Barageramma HS Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R P H S  Pavagada ,Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>P.V.S.B.C HS Hospet ,Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>GHS Byatha Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Uttarkannada</t>
+          <t>Uttara Kannada (Karwar)</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sri Swamy Vivekananada HS Challakere Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>TPCK GHS Holalakere,Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SGRHS Karehalli Hosadurga Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bellar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>S K.M.M High School Kurramkote Koratagere Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Govt Junior College  HS I.D.Halli,Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Guru Deva  High School Kottur Kudligi,Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>S G R J C Gulur,Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>S R High School Kavanadala Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>S.M.H.S.Vengalapura Hosadurga Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hosalli Kudligi,Ballari-58321</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>S R P U  Mallappanahalli,Hosadurga,Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Vanivilasa Composite HS Hosadurga Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>SPV HS Mavinahalli Gubbi,Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Kanchivaradaraja H.S.Kanchipura,Hosadurga Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sri Valmiiki HS Challakere Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>S A R H S Rantavalalu Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sri Ambabavani High School Seenappanahalli Kunigal,Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bharatheeya HS Madakaripura Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>S P V H S Mavinahalli Gubbi,Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
